--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-53046.98723105472</v>
+        <v>8399.393093840925</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17393893.48890403</v>
+        <v>16601219.99236628</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8605485.389002338</v>
+        <v>8617174.542311257</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>104.4122879039225</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -722,10 +722,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>373.858965825692</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>72.02894721335203</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>223.20444749389</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,13 +905,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>211.7754655253317</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>294.1082267099321</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>61.43755362246723</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110.2398163853292</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>189.2737072726794</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>94.50295622698357</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,22 +1339,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>153.3088471182521</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>405.3412121983717</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>330.9165929572099</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.8284742946036</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.08977988054716</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.932559655971</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>208.2631588479956</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,10 +1828,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.996955458883</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>12.66749730000362</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>132.1185994773825</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904403</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,10 +2081,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772991</v>
+        <v>162.8623864116047</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>16.50316575924449</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2242,22 +2242,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>116.0222355487762</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170514</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630718</v>
       </c>
     </row>
     <row r="29">
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.2022955251545</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>108.1177056177448</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225796</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3244,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.238853011215</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925401</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>60.78001549303669</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.96793274293448</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496649</v>
+        <v>433.3484266092796</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141564</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157525</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838374</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>82.40273359887001</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765604</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863804</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526659</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>170.423472922476</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913612</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326388</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>174.52736201873</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934483</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>26.24351759540708</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781979</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602944</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691425</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407903</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092796</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141564</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>423.176133815753</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838374</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>82.40273359887001</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765604</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863804</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526659</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>170.423472922476</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913612</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326388</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>174.52736201873</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277816</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934462</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>26.24351759540698</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781979</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602944</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691425</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407903</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092796</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141564</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>423.176133815753</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838374</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>82.40273359887</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765604</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863804</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526659</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>170.423472922476</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913612</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326388</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>43.53454607828475</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934458</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781979</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602944</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691425</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407903</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.8413732171584</v>
+        <v>573.2597738937379</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>539.1577051175653</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>507.2883243324139</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>73.51357949070913</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.68655394032092</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.68655394032092</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.68655394032092</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>528.4087046167367</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1138.122041139066</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1747.835377661394</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2294.334163619989</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373046</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2379.836354556883</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2159.769127429922</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2159.769127429922</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1797.152177363748</v>
       </c>
       <c r="W2" t="n">
-        <v>670.4887227422939</v>
+        <v>1392.296722774782</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3462593216046</v>
+        <v>1377.194663394496</v>
       </c>
       <c r="Y2" t="n">
-        <v>247.1005396616621</v>
+        <v>999.5593443786457</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.4415095587538</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.985048395396</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.8947595419493</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.774344868903</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.3905064850646</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>91.00541675124845</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>444.8844727975256</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319855</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.33674795193</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.50952604627</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1649.054088494653</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.875444825255</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.538897825223</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.421379887222</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>958.0986256204162</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.2311898592961</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.7454106385169</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.14417192365</v>
+        <v>806.931039006939</v>
       </c>
       <c r="C4" t="n">
-        <v>516.14417192365</v>
+        <v>634.369327490164</v>
       </c>
       <c r="D4" t="n">
-        <v>516.14417192365</v>
+        <v>468.4913346916867</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>298.7333309424239</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>122.0262769041802</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>122.0262769041802</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.0262769041802</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.26976456746092</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>324.0282191385965</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>742.2381009065575</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>1201.72196808747</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>1643.980771245115</v>
       </c>
       <c r="O4" t="n">
-        <v>1233.544589050298</v>
+        <v>2063.650020470896</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2411.156914441238</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373046</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2442.070407078418</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2282.829038376415</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2036.94959195487</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1758.516591207975</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>1471.561083078406</v>
       </c>
       <c r="W4" t="n">
-        <v>741.6032097962661</v>
+        <v>1471.561083078406</v>
       </c>
       <c r="X4" t="n">
-        <v>516.14417192365</v>
+        <v>1226.169328411818</v>
       </c>
       <c r="Y4" t="n">
-        <v>516.14417192365</v>
+        <v>998.7496577259262</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.3910961563706</v>
+        <v>1671.542826455969</v>
       </c>
       <c r="C5" t="n">
-        <v>333.289027380198</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D5" t="n">
-        <v>301.4196465950466</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E5" t="n">
-        <v>271.6853057937458</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>247.8582802433576</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>247.8582802433576</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1217.893900270473</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>813.0384456815061</v>
+        <v>2410.023473199882</v>
       </c>
       <c r="X5" t="n">
-        <v>393.8959822608168</v>
+        <v>1990.881009779192</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6502626008743</v>
+        <v>1693.801992900473</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>885.9154747824084</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="C7" t="n">
-        <v>885.9154747824084</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>885.9154747824084</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>885.9154747824084</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>885.9154747824084</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1262.253570474964</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>1228.151501698791</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>1196.28212091364</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>1166.547780112339</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>738.6803505215471</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>337.282519144811</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>48.15236458802726</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>489.670423471322</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>1080.398166759017</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1080.398166759017</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1671.125910046712</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2217.624696005306</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2386.778760758363</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2303.1268869422</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.1268869422</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2303.1268869422</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2303.1268869422</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>2111.941324040504</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X8" t="n">
-        <v>1692.798860619815</v>
+        <v>1907.229135963029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1688.553140959872</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.9073202064601</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.4508590431024</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3605701896556</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.2401555166093</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8563171327709</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.4712273989548</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>47.73557521516727</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>47.73557521516727</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>47.73557521516727</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>47.73557521516727</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>47.73557521516727</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>462.3358766798661</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>1053.063619967561</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.063619967561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.802558599637</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.975336693976</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.519899142359</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.341255472961</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1341.004708472929</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.887190534929</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5644362681226</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6970005070025</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.2112212862232</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>986.891561517423</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>814.329850000648</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>648.4518572021707</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>478.693853452908</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>301.9867994146642</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>136.3955244404919</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>136.3955244404919</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>47.73557521516727</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>47.73557521516727</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>322.4940297863028</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>740.703911554264</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1200.187778735177</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1642.446581892822</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2062.115831118603</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2386.778760758363</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2386.778760758363</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2365.360939463735</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2365.360939463735</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2365.360939463735</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.503518132167</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1923.548010002598</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1651.52160558889</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="X10" t="n">
-        <v>1406.129850922302</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1178.71018023641</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.969386844472</v>
+        <v>2504.801774419841</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.826914027895</v>
+        <v>2066.659301603264</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.917129202339</v>
+        <v>1630.749516777709</v>
       </c>
       <c r="E11" t="n">
-        <v>1213.142384360634</v>
+        <v>1196.974771936004</v>
       </c>
       <c r="F11" t="n">
-        <v>785.2749547698421</v>
+        <v>787.5392040588608</v>
       </c>
       <c r="G11" t="n">
-        <v>383.877123393106</v>
+        <v>386.1413726821247</v>
       </c>
       <c r="H11" t="n">
-        <v>94.74696883632224</v>
+        <v>97.01121812534097</v>
       </c>
       <c r="I11" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="J11" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="K11" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="L11" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="M11" t="n">
-        <v>1066.635597621311</v>
+        <v>1253.642263963032</v>
       </c>
       <c r="N11" t="n">
-        <v>2192.366581057759</v>
+        <v>2305.579045508695</v>
       </c>
       <c r="O11" t="n">
-        <v>3172.546247628065</v>
+        <v>3285.758712079001</v>
       </c>
       <c r="P11" t="n">
-        <v>4000.85612246146</v>
+        <v>4114.068586912397</v>
       </c>
       <c r="Q11" t="n">
-        <v>4547.354908420056</v>
+        <v>4660.567372870993</v>
       </c>
       <c r="R11" t="n">
-        <v>4716.508973173112</v>
+        <v>4829.721437624049</v>
       </c>
       <c r="S11" t="n">
-        <v>4716.508973173112</v>
+        <v>4746.069563807886</v>
       </c>
       <c r="T11" t="n">
-        <v>4716.508973173112</v>
+        <v>4526.002336680925</v>
       </c>
       <c r="U11" t="n">
-        <v>4457.286670490129</v>
+        <v>4526.002336680925</v>
       </c>
       <c r="V11" t="n">
-        <v>4094.669720423955</v>
+        <v>4163.385386614751</v>
       </c>
       <c r="W11" t="n">
-        <v>3689.814265834989</v>
+        <v>3758.529932025785</v>
       </c>
       <c r="X11" t="n">
-        <v>3355.555081029726</v>
+        <v>3339.387468605095</v>
       </c>
       <c r="Y11" t="n">
-        <v>2947.268957329379</v>
+        <v>2931.101344904749</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.501924454755</v>
+        <v>602.7661737437737</v>
       </c>
       <c r="C12" t="n">
-        <v>494.0454632913973</v>
+        <v>496.309712580416</v>
       </c>
       <c r="D12" t="n">
-        <v>398.9551744379506</v>
+        <v>401.2194237269693</v>
       </c>
       <c r="E12" t="n">
-        <v>304.8347597649043</v>
+        <v>307.099009053923</v>
       </c>
       <c r="F12" t="n">
-        <v>221.4509213810659</v>
+        <v>223.7151706700846</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0658316472498</v>
+        <v>138.3300809362685</v>
       </c>
       <c r="H12" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="I12" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="J12" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="K12" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="L12" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="M12" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="N12" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="O12" t="n">
-        <v>279.9350577366578</v>
+        <v>282.1993070256763</v>
       </c>
       <c r="P12" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.922473504874</v>
       </c>
       <c r="Q12" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.66141213695</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.83419023129</v>
       </c>
       <c r="S12" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.378752679673</v>
       </c>
       <c r="T12" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.200109010274</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.863562010243</v>
       </c>
       <c r="V12" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.746044072242</v>
       </c>
       <c r="W12" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.423289805436</v>
       </c>
       <c r="X12" t="n">
-        <v>848.2916047552974</v>
+        <v>850.5558540443161</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.8058255345181</v>
+        <v>724.0700748235369</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.8262165403935</v>
+        <v>1051.967712591638</v>
       </c>
       <c r="C13" t="n">
-        <v>772.2645050236185</v>
+        <v>879.4060010748631</v>
       </c>
       <c r="D13" t="n">
-        <v>606.3865122251412</v>
+        <v>713.5280082763859</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6285084758784</v>
+        <v>543.7700045271231</v>
       </c>
       <c r="F13" t="n">
-        <v>259.9214544376346</v>
+        <v>367.0629504888793</v>
       </c>
       <c r="G13" t="n">
-        <v>94.33017946346224</v>
+        <v>201.4716755147069</v>
       </c>
       <c r="H13" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="I13" t="n">
-        <v>94.33017946346224</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="J13" t="n">
-        <v>180.9098646281521</v>
+        <v>183.1741139171708</v>
       </c>
       <c r="K13" t="n">
-        <v>455.6683191992877</v>
+        <v>457.9325684883065</v>
       </c>
       <c r="L13" t="n">
-        <v>873.8782009672487</v>
+        <v>876.1424502562675</v>
       </c>
       <c r="M13" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.62631743718</v>
       </c>
       <c r="N13" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.885120594825</v>
       </c>
       <c r="O13" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.554369820607</v>
       </c>
       <c r="P13" t="n">
-        <v>2542.79701450193</v>
+        <v>2545.061263790948</v>
       </c>
       <c r="Q13" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.254038655281</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.254038655281</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.750620323578</v>
+        <v>2554.012669953278</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.871173902033</v>
+        <v>2554.012669953278</v>
       </c>
       <c r="U13" t="n">
-        <v>2168.438173155138</v>
+        <v>2275.579669206383</v>
       </c>
       <c r="V13" t="n">
-        <v>1881.482665025568</v>
+        <v>1988.624161076813</v>
       </c>
       <c r="W13" t="n">
-        <v>1609.45626061186</v>
+        <v>1716.597756663105</v>
       </c>
       <c r="X13" t="n">
-        <v>1364.064505945272</v>
+        <v>1471.206001996517</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.644835259381</v>
+        <v>1243.786331310625</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.969386844472</v>
+        <v>2523.361224717019</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.826914027895</v>
+        <v>2085.218751900442</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.917129202339</v>
+        <v>1649.308967074887</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.142384360634</v>
+        <v>1215.534222233182</v>
       </c>
       <c r="F14" t="n">
-        <v>785.2749547698421</v>
+        <v>787.6667926423894</v>
       </c>
       <c r="G14" t="n">
-        <v>383.877123393106</v>
+        <v>386.2689612656533</v>
       </c>
       <c r="H14" t="n">
-        <v>94.74696883632224</v>
+        <v>97.13880670886955</v>
       </c>
       <c r="I14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="K14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="L14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="M14" t="n">
-        <v>1066.635597621311</v>
+        <v>1253.76985254656</v>
       </c>
       <c r="N14" t="n">
-        <v>2192.366581057759</v>
+        <v>2311.958474685124</v>
       </c>
       <c r="O14" t="n">
-        <v>3172.546247628065</v>
+        <v>3292.13814125543</v>
       </c>
       <c r="P14" t="n">
-        <v>4000.85612246146</v>
+        <v>4120.448016088826</v>
       </c>
       <c r="Q14" t="n">
-        <v>4547.354908420056</v>
+        <v>4666.946802047421</v>
       </c>
       <c r="R14" t="n">
-        <v>4716.508973173112</v>
+        <v>4836.100866800478</v>
       </c>
       <c r="S14" t="n">
-        <v>4658.842528849327</v>
+        <v>4752.448992984315</v>
       </c>
       <c r="T14" t="n">
-        <v>4438.775301722366</v>
+        <v>4532.381765857353</v>
       </c>
       <c r="U14" t="n">
-        <v>4179.552999039382</v>
+        <v>4532.381765857353</v>
       </c>
       <c r="V14" t="n">
-        <v>4179.552999039382</v>
+        <v>4181.944836911929</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.697544450415</v>
+        <v>3777.089382322963</v>
       </c>
       <c r="X14" t="n">
-        <v>3355.555081029726</v>
+        <v>3357.946918902273</v>
       </c>
       <c r="Y14" t="n">
-        <v>2947.268957329379</v>
+        <v>2949.660795201927</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>600.501924454755</v>
+        <v>602.8937623273024</v>
       </c>
       <c r="C15" t="n">
-        <v>494.0454632913973</v>
+        <v>496.4373011639447</v>
       </c>
       <c r="D15" t="n">
-        <v>398.9551744379506</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E15" t="n">
-        <v>304.8347597649043</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F15" t="n">
-        <v>221.4509213810659</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0658316472498</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="K15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="L15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="M15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="N15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="O15" t="n">
-        <v>279.9350577366578</v>
+        <v>282.3268956092049</v>
       </c>
       <c r="P15" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T15" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V15" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X15" t="n">
-        <v>848.2916047552974</v>
+        <v>850.6834426278448</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.8058255345181</v>
+        <v>724.1976634070655</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1033.486165765718</v>
+        <v>1087.120228722566</v>
       </c>
       <c r="C16" t="n">
-        <v>860.9244542489432</v>
+        <v>914.5585172057913</v>
       </c>
       <c r="D16" t="n">
-        <v>695.0464614504659</v>
+        <v>748.6805244073141</v>
       </c>
       <c r="E16" t="n">
-        <v>525.2884577012031</v>
+        <v>578.9225206580513</v>
       </c>
       <c r="F16" t="n">
-        <v>348.5814036629592</v>
+        <v>402.2154666198076</v>
       </c>
       <c r="G16" t="n">
-        <v>182.9901286887869</v>
+        <v>236.6241916456351</v>
       </c>
       <c r="H16" t="n">
-        <v>182.9901286887869</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I16" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J16" t="n">
-        <v>180.9098646281521</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K16" t="n">
-        <v>455.6683191992877</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L16" t="n">
-        <v>873.8782009672487</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N16" t="n">
-        <v>1775.620871305806</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P16" t="n">
-        <v>2542.79701450193</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q16" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.571968071634</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="S16" t="n">
-        <v>2530.33059936963</v>
+        <v>2554.140258536806</v>
       </c>
       <c r="T16" t="n">
-        <v>2530.33059936963</v>
+        <v>2343.773431417618</v>
       </c>
       <c r="U16" t="n">
-        <v>2251.897598622736</v>
+        <v>2065.340430670723</v>
       </c>
       <c r="V16" t="n">
-        <v>1964.942090493166</v>
+        <v>1778.384922541154</v>
       </c>
       <c r="W16" t="n">
-        <v>1692.915686079458</v>
+        <v>1506.358518127445</v>
       </c>
       <c r="X16" t="n">
-        <v>1447.52393141287</v>
+        <v>1506.358518127445</v>
       </c>
       <c r="Y16" t="n">
-        <v>1225.304784484705</v>
+        <v>1278.938847441554</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2132.367007285921</v>
+        <v>2523.361224717019</v>
       </c>
       <c r="C17" t="n">
-        <v>1694.224534469344</v>
+        <v>2085.218751900442</v>
       </c>
       <c r="D17" t="n">
-        <v>1258.314749643789</v>
+        <v>1649.308967074886</v>
       </c>
       <c r="E17" t="n">
-        <v>824.5400048020838</v>
+        <v>1215.534222233181</v>
       </c>
       <c r="F17" t="n">
-        <v>396.6725752112915</v>
+        <v>787.6667926423893</v>
       </c>
       <c r="G17" t="n">
-        <v>383.877123393106</v>
+        <v>386.2689612656532</v>
       </c>
       <c r="H17" t="n">
-        <v>94.74696883632224</v>
+        <v>97.13880670886955</v>
       </c>
       <c r="I17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="K17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="L17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="M17" t="n">
-        <v>1251.378014674013</v>
+        <v>1186.227491248677</v>
       </c>
       <c r="N17" t="n">
-        <v>2361.520645810815</v>
+        <v>2311.958474685124</v>
       </c>
       <c r="O17" t="n">
-        <v>3341.700312381121</v>
+        <v>3292.13814125543</v>
       </c>
       <c r="P17" t="n">
-        <v>4170.010187214517</v>
+        <v>4120.448016088826</v>
       </c>
       <c r="Q17" t="n">
-        <v>4716.508973173112</v>
+        <v>4666.946802047421</v>
       </c>
       <c r="R17" t="n">
-        <v>4716.508973173112</v>
+        <v>4836.100866800478</v>
       </c>
       <c r="S17" t="n">
-        <v>4632.857099356949</v>
+        <v>4752.448992984315</v>
       </c>
       <c r="T17" t="n">
-        <v>4412.789872229988</v>
+        <v>4532.381765857353</v>
       </c>
       <c r="U17" t="n">
-        <v>4153.567569547004</v>
+        <v>4273.15946317437</v>
       </c>
       <c r="V17" t="n">
-        <v>3790.950619480831</v>
+        <v>3910.542513108197</v>
       </c>
       <c r="W17" t="n">
-        <v>3386.095164891864</v>
+        <v>3777.089382322962</v>
       </c>
       <c r="X17" t="n">
-        <v>2966.952701471175</v>
+        <v>3357.946918902273</v>
       </c>
       <c r="Y17" t="n">
-        <v>2558.666577770829</v>
+        <v>2949.660795201926</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>600.501924454755</v>
+        <v>602.8937623273024</v>
       </c>
       <c r="C18" t="n">
-        <v>494.0454632913973</v>
+        <v>496.4373011639447</v>
       </c>
       <c r="D18" t="n">
-        <v>398.9551744379506</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E18" t="n">
-        <v>304.8347597649043</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F18" t="n">
-        <v>221.4509213810659</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0658316472498</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H18" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="J18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="K18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="L18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="M18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="N18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="O18" t="n">
-        <v>279.9350577366578</v>
+        <v>282.3268956092049</v>
       </c>
       <c r="P18" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R18" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T18" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U18" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V18" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X18" t="n">
-        <v>848.2916047552974</v>
+        <v>850.6834426278448</v>
       </c>
       <c r="Y18" t="n">
-        <v>721.8058255345181</v>
+        <v>724.1976634070655</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>944.8262165403935</v>
+        <v>806.2158547536217</v>
       </c>
       <c r="C19" t="n">
-        <v>772.2645050236185</v>
+        <v>633.6541432368465</v>
       </c>
       <c r="D19" t="n">
-        <v>606.3865122251412</v>
+        <v>467.7761504383692</v>
       </c>
       <c r="E19" t="n">
-        <v>436.6285084758784</v>
+        <v>439.0203463484257</v>
       </c>
       <c r="F19" t="n">
-        <v>259.9214544376346</v>
+        <v>262.3132923101819</v>
       </c>
       <c r="G19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="H19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J19" t="n">
-        <v>180.9098646281521</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K19" t="n">
-        <v>455.6683191992877</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L19" t="n">
-        <v>873.8782009672487</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N19" t="n">
-        <v>1775.620871305806</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P19" t="n">
-        <v>2542.79701450193</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q19" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R19" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="S19" t="n">
-        <v>2692.750620323578</v>
+        <v>2554.140258536805</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.871173902033</v>
+        <v>2308.26081211526</v>
       </c>
       <c r="U19" t="n">
-        <v>2168.438173155138</v>
+        <v>2029.827811368366</v>
       </c>
       <c r="V19" t="n">
-        <v>1881.482665025568</v>
+        <v>1742.872303238796</v>
       </c>
       <c r="W19" t="n">
-        <v>1609.45626061186</v>
+        <v>1470.845898825088</v>
       </c>
       <c r="X19" t="n">
-        <v>1364.064505945272</v>
+        <v>1225.4541441585</v>
       </c>
       <c r="Y19" t="n">
-        <v>1136.644835259381</v>
+        <v>998.0344734726087</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2520.55259747161</v>
+        <v>2251.958900913286</v>
       </c>
       <c r="C20" t="n">
-        <v>2082.410124655034</v>
+        <v>1813.816428096709</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.500339829479</v>
+        <v>1649.308967074886</v>
       </c>
       <c r="E20" t="n">
-        <v>1212.725594987774</v>
+        <v>1215.534222233181</v>
       </c>
       <c r="F20" t="n">
-        <v>784.8581653969821</v>
+        <v>787.6667926423893</v>
       </c>
       <c r="G20" t="n">
-        <v>383.460334020246</v>
+        <v>386.2689612656532</v>
       </c>
       <c r="H20" t="n">
-        <v>94.33017946346224</v>
+        <v>97.13880670886942</v>
       </c>
       <c r="I20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="K20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="L20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="M20" t="n">
-        <v>1066.635597621311</v>
+        <v>1186.227491248677</v>
       </c>
       <c r="N20" t="n">
-        <v>2192.366581057759</v>
+        <v>2311.958474685124</v>
       </c>
       <c r="O20" t="n">
-        <v>3172.546247628065</v>
+        <v>3292.13814125543</v>
       </c>
       <c r="P20" t="n">
-        <v>4000.85612246146</v>
+        <v>4120.448016088826</v>
       </c>
       <c r="Q20" t="n">
-        <v>4547.354908420056</v>
+        <v>4666.946802047421</v>
       </c>
       <c r="R20" t="n">
-        <v>4716.508973173112</v>
+        <v>4836.100866800478</v>
       </c>
       <c r="S20" t="n">
-        <v>4632.857099356949</v>
+        <v>4752.448992984315</v>
       </c>
       <c r="T20" t="n">
-        <v>4412.789872229988</v>
+        <v>4532.381765857353</v>
       </c>
       <c r="U20" t="n">
-        <v>4153.567569547004</v>
+        <v>4273.15946317437</v>
       </c>
       <c r="V20" t="n">
-        <v>3790.950619480831</v>
+        <v>3910.542513108197</v>
       </c>
       <c r="W20" t="n">
-        <v>3774.280755077554</v>
+        <v>3505.68705851923</v>
       </c>
       <c r="X20" t="n">
-        <v>3355.138291656865</v>
+        <v>3086.544595098541</v>
       </c>
       <c r="Y20" t="n">
-        <v>2946.852167956518</v>
+        <v>2678.258471398194</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.501924454755</v>
+        <v>602.8937623273024</v>
       </c>
       <c r="C21" t="n">
-        <v>494.0454632913973</v>
+        <v>496.4373011639447</v>
       </c>
       <c r="D21" t="n">
-        <v>398.9551744379506</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E21" t="n">
-        <v>304.8347597649043</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F21" t="n">
-        <v>221.4509213810659</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0658316472498</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H21" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="J21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="K21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="L21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="M21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="N21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="O21" t="n">
-        <v>279.9350577366578</v>
+        <v>282.3268956092049</v>
       </c>
       <c r="P21" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R21" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T21" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U21" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V21" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X21" t="n">
-        <v>848.2916047552974</v>
+        <v>850.6834426278448</v>
       </c>
       <c r="Y21" t="n">
-        <v>721.8058255345181</v>
+        <v>724.1976634070655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>782.4061955864464</v>
+        <v>806.2158547536218</v>
       </c>
       <c r="C22" t="n">
-        <v>609.8444840696714</v>
+        <v>633.6541432368467</v>
       </c>
       <c r="D22" t="n">
-        <v>492.6503067476751</v>
+        <v>467.7761504383694</v>
       </c>
       <c r="E22" t="n">
-        <v>322.8923029984124</v>
+        <v>298.0181466891067</v>
       </c>
       <c r="F22" t="n">
-        <v>322.8923029984124</v>
+        <v>121.3110926508628</v>
       </c>
       <c r="G22" t="n">
-        <v>322.8923029984124</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="H22" t="n">
-        <v>182.9901286887869</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I22" t="n">
-        <v>94.33017946346224</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J22" t="n">
-        <v>180.9098646281521</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K22" t="n">
-        <v>455.6683191992877</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L22" t="n">
-        <v>873.8782009672487</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N22" t="n">
-        <v>1775.620871305806</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.79701450193</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q22" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R22" t="n">
-        <v>2689.571968071634</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="S22" t="n">
-        <v>2530.33059936963</v>
+        <v>2554.140258536806</v>
       </c>
       <c r="T22" t="n">
-        <v>2284.451152948086</v>
+        <v>2308.260812115261</v>
       </c>
       <c r="U22" t="n">
-        <v>2006.018152201191</v>
+        <v>2029.827811368366</v>
       </c>
       <c r="V22" t="n">
-        <v>1719.062644071621</v>
+        <v>1742.872303238797</v>
       </c>
       <c r="W22" t="n">
-        <v>1447.036239657913</v>
+        <v>1470.845898825088</v>
       </c>
       <c r="X22" t="n">
-        <v>1201.644484991325</v>
+        <v>1225.454144158501</v>
       </c>
       <c r="Y22" t="n">
-        <v>974.2248143054336</v>
+        <v>998.0344734726089</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856333</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6300,22 +6300,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O27" t="n">
         <v>287.8657185439749</v>
@@ -6409,22 +6409,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
         <v>1144.575496066698</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O30" t="n">
         <v>287.8657185439749</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405613</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.219347342084</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2562.150454693625</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2316.27100827208</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.27100827208</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728802</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O33" t="n">
         <v>287.8657185439749</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903956</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736206</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751433</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258805</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>286.0912842876368</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134644</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461862</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795275</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109383</v>
+        <v>1290.528804536949</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390331</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835861</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>97.56670367581786</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1254.614538886369</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2380.345522322816</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3360.525188893122</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4188.835063726518</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4735.333849685113</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278743</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581786</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581786</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581786</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581786</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>97.56670367581786</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>97.56670367581786</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
-        <v>283.1715819490133</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936672</v>
+        <v>639.1929661716166</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080659</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716793</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463116</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206712</v>
+        <v>2525.85493345824</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1652.636254561828</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>791.8276588750509</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711748</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581786</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L38" t="n">
-        <v>240.5680377815986</v>
+        <v>1425.472357036647</v>
       </c>
       <c r="M38" t="n">
-        <v>1397.615872992149</v>
+        <v>2582.520192247198</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2582.520192247198</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3562.699858817504</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4391.009733650901</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4937.508519609495</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362552</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673522</v>
+        <v>4803.777062165147</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403415</v>
+        <v>4544.971548855024</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4182.77138816171</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574027</v>
+        <v>3778.332722945604</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566214</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278743</v>
+        <v>2951.737714570288</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581786</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581786</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581786</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581786</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581786</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581786</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>287.7381299604466</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>950.5453418998829</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936676</v>
+        <v>778.400419755968</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080664</v>
+        <v>612.9392163303507</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716798</v>
+        <v>443.5980019539479</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463121</v>
+        <v>267.3077372885634</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>189.1214321162809</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517565</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>882.9067589840577</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851295</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2695.552220073047</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2450.089563024363</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2172.073351650328</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1885.534632893618</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1613.92501785277</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1368.950052559042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1141.94717124601</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2525.854933458241</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014524</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1652.636254561829</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092984</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835861</v>
+        <v>791.8276588750514</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711752</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="L41" t="n">
-        <v>240.5680377815986</v>
+        <v>299.7413736002001</v>
       </c>
       <c r="M41" t="n">
-        <v>1397.615872992149</v>
+        <v>1456.789208810751</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428596</v>
+        <v>2582.520192247198</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998903</v>
+        <v>3562.699858817504</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832299</v>
+        <v>4391.009733650901</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790893</v>
+        <v>4937.508519609495</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362552</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165147</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855024</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.77138816171</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945604</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570289</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>287.7381299604466</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>950.5453418998829</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>778.400419755968</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080659</v>
+        <v>612.9392163303507</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>443.5980019539479</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463117</v>
+        <v>267.3077372885634</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>189.1214321162808</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517564</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>882.9067589840575</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.79912142931</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851295</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2695.552220073047</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2450.089563024363</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2172.073351650328</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1885.534632893618</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1613.92501785277</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1368.950052559042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1141.94717124601</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2525.85493345824</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1652.636254561828</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>791.8276588750505</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711748</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="L44" t="n">
-        <v>240.5680377815986</v>
+        <v>299.7413736002001</v>
       </c>
       <c r="M44" t="n">
-        <v>1397.615872992149</v>
+        <v>1456.789208810751</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428596</v>
+        <v>2582.520192247198</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998903</v>
+        <v>3562.699858817504</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832299</v>
+        <v>4391.009733650901</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4937.508519609495</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362552</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165147</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4544.971548855025</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.771388161711</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3778.332722945604</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3359.607048897775</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2951.737714570289</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>287.7381299604466</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>818.229366202463</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>646.0844440585479</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>480.6232406329307</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>311.2820262565278</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>267.3077372885634</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>189.1214321162809</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517565</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>882.9067589840578</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2563.236244375627</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2317.773587326943</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2039.757375952908</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1753.218657196198</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1481.609042155349</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1236.634076861622</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1009.63119554859</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>483.9787273225008</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932616</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932614</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>399.6108163940048</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932616</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>52.85991306243204</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8459,16 +8459,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>446.3988366223786</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>596.6946901895908</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895908</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>418.7881832976756</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>596.6946901895908</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>327.9423531714751</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>1062.56240560168</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1068.877396099559</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -9170,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1100.510579709765</v>
       </c>
       <c r="N17" t="n">
-        <v>1121.356193067477</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>982.1266850079285</v>
+        <v>1100.510579709765</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>144.4457920260411</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234297</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>144.4457920260412</v>
+        <v>54.27689488717215</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>161.1527324371091</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>144.4457920260412</v>
+        <v>199.6041635484335</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>144.4457920260412</v>
+        <v>199.6041635484335</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234297</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>18.24754309651263</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>84.0344458292725</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192563</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>25.72557519745421</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>12.05822090954075</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>35.1574931093337</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.148518520149798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>384.7163557629651</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>268.6883005656945</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>268.6883005656953</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>384.3037342838325</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>48.19697732171632</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,13 +24886,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>2.446659489828857</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>81.78272691405246</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>103.1553467313939</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.0905310873979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.36072825394007</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.79102160255049</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>130.9928159404449</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.0905310873979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.36072825394007</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.79102160255049</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>130.992815940445</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>130.9928159404452</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.0905310873979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.36072825394005</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.79102160255047</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>707133.6811615338</v>
+        <v>719592.6886468921</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>707133.6811615338</v>
+        <v>720294.7434625603</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>707133.6811615338</v>
+        <v>720294.7434625603</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>707133.6811615339</v>
+        <v>720294.7434625601</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>764009.9308438322</v>
+        <v>750772.0573957269</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>764009.9308438322</v>
+        <v>751108.490530388</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>764009.9308438322</v>
+        <v>751108.4905303878</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>764009.9308438322</v>
+        <v>751108.4905303878</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>174247.8789643827</v>
       </c>
       <c r="E2" t="n">
-        <v>161276.1027210516</v>
+        <v>164117.630744028</v>
       </c>
       <c r="F2" t="n">
-        <v>161276.1027210515</v>
+        <v>164277.748509005</v>
       </c>
       <c r="G2" t="n">
-        <v>161276.1027210516</v>
+        <v>164277.7485090049</v>
       </c>
       <c r="H2" t="n">
-        <v>161276.1027210516</v>
+        <v>164277.7485090049</v>
       </c>
       <c r="I2" t="n">
         <v>171228.7148446394</v>
@@ -26344,16 +26344,16 @@
         <v>171228.7148446394</v>
       </c>
       <c r="M2" t="n">
-        <v>174247.8789643825</v>
+        <v>171228.7148446394</v>
       </c>
       <c r="N2" t="n">
-        <v>174247.8789643827</v>
+        <v>171305.4452086849</v>
       </c>
       <c r="O2" t="n">
-        <v>174247.8789643827</v>
+        <v>171305.4452086849</v>
       </c>
       <c r="P2" t="n">
-        <v>174247.8789643827</v>
+        <v>171305.4452086848</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>206392.8913892651</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16684.3877408809</v>
       </c>
       <c r="D3" t="n">
-        <v>53552.24939212258</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>173901.5468405928</v>
+        <v>161206.7864921676</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>456.9680810513637</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26361.61565678307</v>
+        <v>18411.11667046239</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>161139.2285061093</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13291.29410427239</v>
       </c>
       <c r="L3" t="n">
-        <v>43632.592959153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143510.6200345135</v>
+        <v>134549.0157379115</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>330.0971833050781</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125323.5650299025</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>129712.5371811796</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>759.4645886419041</v>
+        <v>772.8456158038568</v>
       </c>
       <c r="F4" t="n">
-        <v>759.4645886419041</v>
+        <v>773.5996256693036</v>
       </c>
       <c r="G4" t="n">
-        <v>759.4645886419044</v>
+        <v>773.5996256693036</v>
       </c>
       <c r="H4" t="n">
-        <v>759.464588641943</v>
+        <v>773.5996256692627</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26448,16 +26448,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>16466.62778780234</v>
+        <v>806.3323907826432</v>
       </c>
       <c r="N4" t="n">
-        <v>16466.62778780227</v>
+        <v>1222.551252183109</v>
       </c>
       <c r="O4" t="n">
-        <v>16466.62778780235</v>
+        <v>1222.551252183083</v>
       </c>
       <c r="P4" t="n">
-        <v>16466.62778780235</v>
+        <v>1222.551252183103</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>71072.6210712703</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69906.63716352712</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71690.93639223131</v>
+        <v>73411.76585188555</v>
       </c>
       <c r="F5" t="n">
-        <v>71690.93639223131</v>
+        <v>73508.73317536726</v>
       </c>
       <c r="G5" t="n">
-        <v>71690.93639223131</v>
+        <v>73508.73317536726</v>
       </c>
       <c r="H5" t="n">
-        <v>71690.93639223131</v>
+        <v>73508.73317536726</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196536.3031023094</v>
+        <v>-228541.1985260551</v>
       </c>
       <c r="C6" t="n">
-        <v>-54345.00244259947</v>
+        <v>-30153.43955650651</v>
       </c>
       <c r="D6" t="n">
-        <v>-78923.54477244656</v>
+        <v>-13469.05181562561</v>
       </c>
       <c r="E6" t="n">
-        <v>-85075.84510041439</v>
+        <v>-71351.69220213943</v>
       </c>
       <c r="F6" t="n">
-        <v>88825.70174017834</v>
+        <v>89461.75431572186</v>
       </c>
       <c r="G6" t="n">
-        <v>88825.70174017843</v>
+        <v>89918.72239677317</v>
       </c>
       <c r="H6" t="n">
-        <v>88825.70174017838</v>
+        <v>89918.72239677314</v>
       </c>
       <c r="I6" t="n">
-        <v>66342.52819128126</v>
+        <v>74269.8028382193</v>
       </c>
       <c r="J6" t="n">
-        <v>-18310.32149692586</v>
+        <v>-68458.30899742764</v>
       </c>
       <c r="K6" t="n">
-        <v>92704.14384806433</v>
+        <v>79389.62540440931</v>
       </c>
       <c r="L6" t="n">
-        <v>49071.55088891133</v>
+        <v>92680.91950868169</v>
       </c>
       <c r="M6" t="n">
-        <v>-61244.98358402314</v>
+        <v>-41868.0962292298</v>
       </c>
       <c r="N6" t="n">
-        <v>82265.63645049065</v>
+        <v>92074.20270994381</v>
       </c>
       <c r="O6" t="n">
-        <v>82265.63645049065</v>
+        <v>92404.29989324883</v>
       </c>
       <c r="P6" t="n">
-        <v>82265.63645049059</v>
+        <v>92404.2998932488</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932616</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.6946901895908</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1179.127243293278</v>
+        <v>1207.430359406012</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.127243293278</v>
+        <v>1209.025216700119</v>
       </c>
       <c r="G4" t="n">
-        <v>1179.127243293278</v>
+        <v>1209.025216700119</v>
       </c>
       <c r="H4" t="n">
-        <v>1179.127243293278</v>
+        <v>1209.025216700119</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932616</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>51.64314951459539</v>
       </c>
       <c r="D4" t="n">
-        <v>172.3988326694865</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>582.4325531036873</v>
+        <v>539.9151527981553</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.594857294107214</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.13326009146726</v>
+        <v>69.23528668462586</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932616</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>51.64314951459539</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694865</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7558456666652</v>
+        <v>539.9151527981551</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932616</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>51.64314951459539</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694865</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>582.4325531036873</v>
+        <v>539.9151527981553</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.594857294107214</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>329.3487601844884</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>30.3442966376511</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>15.74440251971939</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>19.73338962603168</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,13 +27625,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>74.46338748588417</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>110.095035753411</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>128.46287890933</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>53.97939648516331</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>211.5331927703976</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>309.7003062363596</v>
       </c>
     </row>
     <row r="9">
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>122.3398236211736</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>144.1344859240868</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874606</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791318716</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791313476</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313476</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>0.4126214791313668</v>
       </c>
     </row>
   </sheetData>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>483.9787273225008</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932616</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932614</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>399.6108163940048</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932616</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>298.4303698644312</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>52.85991306243204</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35179,16 +35179,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>446.3988366223786</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>596.6946901895908</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895908</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>418.7881832976756</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>596.6946901895908</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>327.9423531714751</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>1062.56240560168</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35653,10 +35653,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1068.877396099559</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35890,10 +35890,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1100.510579709765</v>
       </c>
       <c r="N17" t="n">
-        <v>1121.356193067477</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>982.1266850079285</v>
+        <v>1100.510579709765</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -36996,13 +36996,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>144.4457920260411</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234297</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>144.4457920260412</v>
+        <v>54.27689488717215</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>161.1527324371091</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821199</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>277.9464139752279</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>464.53773984369</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747319</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>144.4457920260412</v>
+        <v>199.6041635484335</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821187</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871728</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>464.5377398436899</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>144.4457920260412</v>
+        <v>199.6041635484335</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234297</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821204</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>277.9464139752279</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>464.5377398436901</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747319</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>424.3209540304256</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552546</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
